--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F26BD-171A-40B6-AC7E-87D8283CA5D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -138,12 +139,15 @@
   </si>
   <si>
     <t>Orden</t>
+  </si>
+  <si>
+    <t>Isabel Manias Piccolomini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +471,11 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>33</v>
       </c>
@@ -479,8 +485,11 @@
       <c r="F1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -499,8 +508,13 @@
       <c r="F2" s="1">
         <v>45320</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>45324</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -516,8 +530,11 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -533,8 +550,11 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125245</v>
       </c>
@@ -550,8 +570,11 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -567,8 +590,11 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -584,8 +610,11 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -601,8 +630,11 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -618,8 +650,11 @@
       <c r="E9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -635,8 +670,11 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -652,8 +690,11 @@
       <c r="E11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -669,8 +710,11 @@
       <c r="E12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -686,8 +730,11 @@
       <c r="E13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -703,47 +750,53 @@
       <c r="E14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>24125249</v>
-      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>24125293</v>
+        <v>24125249</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>24125310</v>
+        <v>24125293</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -754,13 +807,16 @@
       <c r="E17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>24125295</v>
+        <v>24125310</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -771,13 +827,16 @@
       <c r="E18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>24125251</v>
+        <v>24125295</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -786,15 +845,18 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>24125334</v>
+        <v>24125251</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -803,15 +865,18 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>24125297</v>
+        <v>24125334</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -822,13 +887,16 @@
       <c r="E21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24125234</v>
+        <v>24125297</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -839,13 +907,16 @@
       <c r="E22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24125216</v>
+        <v>24125234</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -856,13 +927,16 @@
       <c r="E23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24125236</v>
+        <v>24125216</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -873,13 +947,16 @@
       <c r="E24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24125238</v>
+        <v>24125236</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -890,13 +967,16 @@
       <c r="E25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24125218</v>
+        <v>24125238</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -907,13 +987,16 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>24125220</v>
+        <v>24125218</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -924,13 +1007,16 @@
       <c r="E27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>24125299</v>
+        <v>24125220</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -941,13 +1027,16 @@
       <c r="E28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>24125301</v>
+        <v>24125299</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -958,13 +1047,16 @@
       <c r="E29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24125316</v>
+        <v>24125301</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -975,13 +1067,16 @@
       <c r="E30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24125306</v>
+        <v>24125316</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -992,13 +1087,16 @@
       <c r="E31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>24125254</v>
+        <v>24125306</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -1009,13 +1107,16 @@
       <c r="E32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>24125347</v>
+        <v>24125254</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -1026,9 +1127,32 @@
       <c r="E33" t="s">
         <v>35</v>
       </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>24125347</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F33">
+  <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F26BD-171A-40B6-AC7E-87D8283CA5D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B45341A-46EB-4D95-89A0-82DC2F571BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="chamada" sheetId="1" r:id="rId1"/>
+    <sheet name="SOP" sheetId="2" r:id="rId2"/>
+    <sheet name="LER" sheetId="4" r:id="rId3"/>
+    <sheet name="LER - Apresentacoes - 02-02" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="146">
   <si>
     <t>Aluno</t>
   </si>
@@ -142,14 +145,351 @@
   </si>
   <si>
     <t>Isabel Manias Piccolomini</t>
+  </si>
+  <si>
+    <t>ATV1</t>
+  </si>
+  <si>
+    <t>Floricultura</t>
+  </si>
+  <si>
+    <t>Entrevista com empreendedor</t>
+  </si>
+  <si>
+    <t>Técnicas</t>
+  </si>
+  <si>
+    <t>Negócio</t>
+  </si>
+  <si>
+    <t>Flores, arranjos, flores secas</t>
+  </si>
+  <si>
+    <t>Valorização por especialização</t>
+  </si>
+  <si>
+    <t>Fornecedores</t>
+  </si>
+  <si>
+    <t>Proposta de solução</t>
+  </si>
+  <si>
+    <t>Despesas</t>
+  </si>
+  <si>
+    <t>Mão de obra, aluguel, energia elétrica</t>
+  </si>
+  <si>
+    <t>Leilão, ou específicos</t>
+  </si>
+  <si>
+    <t>Armazenamento</t>
+  </si>
+  <si>
+    <t>Climatização, frios</t>
+  </si>
+  <si>
+    <t>Controle do fluxo de caixa</t>
+  </si>
+  <si>
+    <t>Precificação</t>
+  </si>
+  <si>
+    <t>Balanços frequentes</t>
+  </si>
+  <si>
+    <t>Indicar fornecedores</t>
+  </si>
+  <si>
+    <t>Cestas -  Novos produtos</t>
+  </si>
+  <si>
+    <t>GRUPO 1</t>
+  </si>
+  <si>
+    <t>GRUPO 2</t>
+  </si>
+  <si>
+    <t>Academia - Pano Bianco</t>
+  </si>
+  <si>
+    <t>Entrevista com a empreendedora</t>
+  </si>
+  <si>
+    <t>Complementar com natação</t>
+  </si>
+  <si>
+    <t>Fornecedores de produtos Fitness</t>
+  </si>
+  <si>
+    <t>Tipos de planos de academia</t>
+  </si>
+  <si>
+    <t>Agendamento de aulas</t>
+  </si>
+  <si>
+    <t>Receita</t>
+  </si>
+  <si>
+    <t>Ganho por inscrições de clientes</t>
+  </si>
+  <si>
+    <t>Marketing - Propaganda</t>
+  </si>
+  <si>
+    <t>Vendas de produtos</t>
+  </si>
+  <si>
+    <t>Reposição de equipamentos</t>
+  </si>
+  <si>
+    <t>Problemas/Despesas</t>
+  </si>
+  <si>
+    <t>Patrocinadores, Sal. Professores</t>
+  </si>
+  <si>
+    <t>Catraca</t>
+  </si>
+  <si>
+    <t>Sistema para reposição dos produtos (Estoque)</t>
+  </si>
+  <si>
+    <t>Agendamento de horários</t>
+  </si>
+  <si>
+    <t>Ou sistema de vendas online.</t>
+  </si>
+  <si>
+    <t>GRUPO 3</t>
+  </si>
+  <si>
+    <t>Fábrica de sabonetes</t>
+  </si>
+  <si>
+    <t>Pesquisa Web</t>
+  </si>
+  <si>
+    <t>Funcionários</t>
+  </si>
+  <si>
+    <t>Produção,  Modelagem, Selagem</t>
+  </si>
+  <si>
+    <t>Aomoxarifado, lab químico, escritório</t>
+  </si>
+  <si>
+    <t>Ótima descrição de cada função dos funcionários</t>
+  </si>
+  <si>
+    <t>Boa descrição do processo de fabricação</t>
+  </si>
+  <si>
+    <t>Folha de pagamento, cargos e salários</t>
+  </si>
+  <si>
+    <t>Pesquisaram os fornecedores de cada componente</t>
+  </si>
+  <si>
+    <t>Calcularam os gastos semanais</t>
+  </si>
+  <si>
+    <t>Oferecer produtos no atacado</t>
+  </si>
+  <si>
+    <t>Aluguel, energia, impostos, matéria prima</t>
+  </si>
+  <si>
+    <t>Marketing digital</t>
+  </si>
+  <si>
+    <t>Análise de viabilidade</t>
+  </si>
+  <si>
+    <t>Estimativa mensal de gastos</t>
+  </si>
+  <si>
+    <t>Gereniar salários, dados fiscais, notas</t>
+  </si>
+  <si>
+    <t>A empresa possui produção sazonal</t>
+  </si>
+  <si>
+    <t>Gerenciar todos os processos de produção</t>
+  </si>
+  <si>
+    <t>Talvez um ERP</t>
+  </si>
+  <si>
+    <t>GRUPO 4</t>
+  </si>
+  <si>
+    <t>Padaria</t>
+  </si>
+  <si>
+    <t>Pesquisa web</t>
+  </si>
+  <si>
+    <t>Descreveram cada função</t>
+  </si>
+  <si>
+    <t>Descrição dos insumos</t>
+  </si>
+  <si>
+    <t>Investimento mensal</t>
+  </si>
+  <si>
+    <t>Concorrência</t>
+  </si>
+  <si>
+    <t>Calcular ganhos a partir das vendas</t>
+  </si>
+  <si>
+    <t>Desafios</t>
+  </si>
+  <si>
+    <t>Gerar lucro a partir da produção</t>
+  </si>
+  <si>
+    <t>Pães, bolos</t>
+  </si>
+  <si>
+    <t>Revenda de produtos prontos</t>
+  </si>
+  <si>
+    <t>Atacadistas da região</t>
+  </si>
+  <si>
+    <t>Proporsta de sução</t>
+  </si>
+  <si>
+    <t>Descobrir o mínimo de vendas para gerar lucro</t>
+  </si>
+  <si>
+    <t>Sistema que descubra como gerar ganhos</t>
+  </si>
+  <si>
+    <t>a partir da produção</t>
+  </si>
+  <si>
+    <t>Viabilidade</t>
+  </si>
+  <si>
+    <t>Gestão de estoque</t>
+  </si>
+  <si>
+    <t>GRUPO 5</t>
+  </si>
+  <si>
+    <t>Canal do Youtube - Manual do mundo</t>
+  </si>
+  <si>
+    <t>Descreveu os cargos da equipe</t>
+  </si>
+  <si>
+    <t>Receitas</t>
+  </si>
+  <si>
+    <t>Monetização, Merchan</t>
+  </si>
+  <si>
+    <t>Patrocinadores</t>
+  </si>
+  <si>
+    <t>manter o interesse do público, alteração no algoritmo</t>
+  </si>
+  <si>
+    <t>Salários, equipamentos</t>
+  </si>
+  <si>
+    <t>Entretenimento através de experiências</t>
+  </si>
+  <si>
+    <t>Software de edição</t>
+  </si>
+  <si>
+    <t>Qualidade dos vídeos</t>
+  </si>
+  <si>
+    <t>Manter o interesse do público</t>
+  </si>
+  <si>
+    <t>Plataforma para armazenar</t>
+  </si>
+  <si>
+    <t>sugestões de temas dos inscritos</t>
+  </si>
+  <si>
+    <t>GRUPO 6</t>
+  </si>
+  <si>
+    <t>Loja virtual - Amazon</t>
+  </si>
+  <si>
+    <t>Pesquisa WEB</t>
+  </si>
+  <si>
+    <t>Descreveu as funções</t>
+  </si>
+  <si>
+    <t>Lista confidencial</t>
+  </si>
+  <si>
+    <t>Ampla gama de fornecedores</t>
+  </si>
+  <si>
+    <t>Centro de distribuição</t>
+  </si>
+  <si>
+    <t>Automação avançada</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>Sistemas preditivos</t>
+  </si>
+  <si>
+    <t>Atendimento ao cliente</t>
+  </si>
+  <si>
+    <t>Vendas online</t>
+  </si>
+  <si>
+    <t>Aproximação de fornecedor e cliente</t>
+  </si>
+  <si>
+    <t>Market place</t>
+  </si>
+  <si>
+    <t>Ambiente justo, mas competitivos</t>
+  </si>
+  <si>
+    <t>Segurança e privacidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,7 +505,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -173,13 +513,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +876,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +946,9 @@
       <c r="F3" t="s">
         <v>35</v>
       </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -553,6 +969,9 @@
       <c r="F4" t="s">
         <v>35</v>
       </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -573,6 +992,9 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -593,6 +1015,9 @@
       <c r="F6" t="s">
         <v>35</v>
       </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -613,6 +1038,9 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -633,6 +1061,9 @@
       <c r="F8" t="s">
         <v>35</v>
       </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -653,12 +1084,15 @@
       <c r="F9" t="s">
         <v>35</v>
       </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10">
@@ -671,6 +1105,9 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -693,6 +1130,9 @@
       <c r="F11" t="s">
         <v>35</v>
       </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -713,6 +1153,9 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -733,6 +1176,9 @@
       <c r="F13" t="s">
         <v>35</v>
       </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -753,6 +1199,9 @@
       <c r="F14" t="s">
         <v>35</v>
       </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -770,6 +1219,9 @@
       <c r="F15" t="s">
         <v>35</v>
       </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -790,8 +1242,11 @@
       <c r="F16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -810,8 +1265,11 @@
       <c r="F17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -830,8 +1288,11 @@
       <c r="F18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -850,8 +1311,11 @@
       <c r="F19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -870,8 +1334,11 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -890,8 +1357,11 @@
       <c r="F21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -910,8 +1380,11 @@
       <c r="F22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -930,8 +1403,11 @@
       <c r="F23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -950,8 +1426,11 @@
       <c r="F24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -970,8 +1449,11 @@
       <c r="F25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -990,8 +1472,11 @@
       <c r="F26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1010,8 +1495,11 @@
       <c r="F27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1030,8 +1518,11 @@
       <c r="F28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1050,8 +1541,11 @@
       <c r="F29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -1070,8 +1564,11 @@
       <c r="F30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -1090,8 +1587,11 @@
       <c r="F31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -1110,8 +1610,11 @@
       <c r="F32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -1130,8 +1633,11 @@
       <c r="F33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -1148,6 +1654,9 @@
         <v>35</v>
       </c>
       <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1156,5 +1665,1275 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E09C28A-2450-471A-BA58-77FFFB875DAA}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25D918E-BA47-4830-8E39-A2D2C14E1AA5}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADC8E84-B1E2-4CA2-B86F-E203728754DD}">
+  <dimension ref="B1:I50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="H4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="10"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="10"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="10"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="E29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="H29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="E30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="H30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="H31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="E32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="H32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="10"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="10"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="10"/>
+      <c r="H40" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="10"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="10"/>
+      <c r="H48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="10"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="10"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD70BD86-A545-4391-92FF-1EF6FA81A767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BFEEB3-5FD4-4AC3-9469-E56C52B80E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,11 +472,10 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>33</v>
       </c>
@@ -492,8 +491,11 @@
       <c r="H1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -518,9 +520,15 @@
       <c r="H2" s="1">
         <v>45327</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>45331</v>
+      </c>
+      <c r="N2">
+        <f ca="1">RANDBETWEEN(1,32)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -546,7 +554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -572,7 +580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125245</v>
       </c>
@@ -598,7 +606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -624,7 +632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -650,7 +658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -676,7 +684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -702,7 +710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -728,7 +736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -754,7 +762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -780,7 +788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -806,7 +814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -832,7 +840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -855,7 +863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BFEEB3-5FD4-4AC3-9469-E56C52B80E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C8F1DC-A719-4FA9-9026-4A910DCEA9FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="N2">
         <f ca="1">RANDBETWEEN(1,32)</f>
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -553,6 +553,9 @@
       <c r="H3" t="s">
         <v>35</v>
       </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -579,6 +582,9 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -605,6 +611,9 @@
       <c r="H5" t="s">
         <v>35</v>
       </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -631,6 +640,9 @@
       <c r="H6" t="s">
         <v>35</v>
       </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -657,6 +669,9 @@
       <c r="H7" t="s">
         <v>35</v>
       </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -683,6 +698,9 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -709,6 +727,9 @@
       <c r="H9" t="s">
         <v>35</v>
       </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -735,6 +756,9 @@
       <c r="H10" t="s">
         <v>35</v>
       </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -761,6 +785,9 @@
       <c r="H11" t="s">
         <v>35</v>
       </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -787,6 +814,9 @@
       <c r="H12" t="s">
         <v>35</v>
       </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -813,6 +843,9 @@
       <c r="H13" t="s">
         <v>36</v>
       </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -839,6 +872,9 @@
       <c r="H14" t="s">
         <v>35</v>
       </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -862,6 +898,9 @@
       <c r="H15" t="s">
         <v>35</v>
       </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -888,8 +927,11 @@
       <c r="H16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -914,8 +956,11 @@
       <c r="H17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -940,8 +985,11 @@
       <c r="H18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -966,8 +1014,11 @@
       <c r="H19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -992,8 +1043,11 @@
       <c r="H20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1018,8 +1072,11 @@
       <c r="H21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1044,8 +1101,11 @@
       <c r="H22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1070,8 +1130,11 @@
       <c r="H23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1096,8 +1159,11 @@
       <c r="H24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1122,8 +1188,11 @@
       <c r="H25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1148,8 +1217,11 @@
       <c r="H26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1174,8 +1246,11 @@
       <c r="H27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1200,8 +1275,11 @@
       <c r="H28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1226,8 +1304,11 @@
       <c r="H29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -1252,8 +1333,11 @@
       <c r="H30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -1278,8 +1362,11 @@
       <c r="H31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -1304,8 +1391,11 @@
       <c r="H32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -1330,8 +1420,11 @@
       <c r="H33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -1354,6 +1447,9 @@
         <v>35</v>
       </c>
       <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C8F1DC-A719-4FA9-9026-4A910DCEA9FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC3D340-6D5C-437C-96C6-FEEB09AD830A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +494,9 @@
       <c r="I1" t="s">
         <v>34</v>
       </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -523,9 +526,12 @@
       <c r="I2" s="1">
         <v>45331</v>
       </c>
+      <c r="J2" s="1">
+        <v>45338</v>
+      </c>
       <c r="N2">
         <f ca="1">RANDBETWEEN(1,32)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -556,6 +562,9 @@
       <c r="I3" t="s">
         <v>35</v>
       </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -585,6 +594,9 @@
       <c r="I4" t="s">
         <v>35</v>
       </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -614,6 +626,9 @@
       <c r="I5" t="s">
         <v>36</v>
       </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -643,6 +658,9 @@
       <c r="I6" t="s">
         <v>35</v>
       </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -672,6 +690,9 @@
       <c r="I7" t="s">
         <v>36</v>
       </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -701,6 +722,9 @@
       <c r="I8" t="s">
         <v>35</v>
       </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -730,6 +754,9 @@
       <c r="I9" t="s">
         <v>35</v>
       </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -759,6 +786,9 @@
       <c r="I10" t="s">
         <v>35</v>
       </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -788,6 +818,9 @@
       <c r="I11" t="s">
         <v>35</v>
       </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -817,6 +850,9 @@
       <c r="I12" t="s">
         <v>35</v>
       </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -846,6 +882,9 @@
       <c r="I13" t="s">
         <v>35</v>
       </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -875,6 +914,9 @@
       <c r="I14" t="s">
         <v>35</v>
       </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -901,6 +943,9 @@
       <c r="I15" t="s">
         <v>35</v>
       </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -930,8 +975,11 @@
       <c r="I16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -959,8 +1007,11 @@
       <c r="I17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -988,8 +1039,11 @@
       <c r="I18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1017,8 +1071,11 @@
       <c r="I19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1046,8 +1103,11 @@
       <c r="I20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1075,8 +1135,11 @@
       <c r="I21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1104,8 +1167,11 @@
       <c r="I22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1133,8 +1199,11 @@
       <c r="I23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1162,8 +1231,11 @@
       <c r="I24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1191,8 +1263,11 @@
       <c r="I25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1220,8 +1295,11 @@
       <c r="I26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1249,8 +1327,11 @@
       <c r="I27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1278,8 +1359,11 @@
       <c r="I28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1307,8 +1391,11 @@
       <c r="I29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -1336,8 +1423,11 @@
       <c r="I30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -1365,8 +1455,11 @@
       <c r="I31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -1394,8 +1487,11 @@
       <c r="I32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -1423,8 +1519,11 @@
       <c r="I33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -1450,6 +1549,9 @@
         <v>35</v>
       </c>
       <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC3D340-6D5C-437C-96C6-FEEB09AD830A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E4273-AD01-472F-B7D3-3A77867681CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="40">
   <si>
     <t>Aluno</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Isabel Manias Piccolomini</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,9 +532,15 @@
       <c r="J2" s="1">
         <v>45338</v>
       </c>
+      <c r="K2" s="1">
+        <v>45341</v>
+      </c>
+      <c r="L2" s="1">
+        <v>23</v>
+      </c>
       <c r="N2">
         <f ca="1">RANDBETWEEN(1,32)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -565,6 +574,12 @@
       <c r="J3" t="s">
         <v>35</v>
       </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -597,6 +612,12 @@
       <c r="J4" t="s">
         <v>35</v>
       </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -629,6 +650,12 @@
       <c r="J5" t="s">
         <v>36</v>
       </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -661,6 +688,12 @@
       <c r="J6" t="s">
         <v>35</v>
       </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -693,6 +726,12 @@
       <c r="J7" t="s">
         <v>35</v>
       </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -725,6 +764,12 @@
       <c r="J8" t="s">
         <v>36</v>
       </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -757,6 +802,12 @@
       <c r="J9" t="s">
         <v>35</v>
       </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -789,6 +840,12 @@
       <c r="J10" t="s">
         <v>35</v>
       </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -821,6 +878,12 @@
       <c r="J11" t="s">
         <v>36</v>
       </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -853,6 +916,12 @@
       <c r="J12" t="s">
         <v>36</v>
       </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -885,6 +954,12 @@
       <c r="J13" t="s">
         <v>35</v>
       </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -917,6 +992,12 @@
       <c r="J14" t="s">
         <v>35</v>
       </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -946,6 +1027,12 @@
       <c r="J15" t="s">
         <v>35</v>
       </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -978,8 +1065,14 @@
       <c r="J16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1010,8 +1103,14 @@
       <c r="J17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1042,8 +1141,14 @@
       <c r="J18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1074,8 +1179,14 @@
       <c r="J19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1106,8 +1217,14 @@
       <c r="J20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1138,8 +1255,14 @@
       <c r="J21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1170,8 +1293,14 @@
       <c r="J22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1202,8 +1331,14 @@
       <c r="J23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1234,8 +1369,14 @@
       <c r="J24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1266,8 +1407,14 @@
       <c r="J25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1298,8 +1445,14 @@
       <c r="J26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1330,8 +1483,14 @@
       <c r="J27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1362,8 +1521,14 @@
       <c r="J28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1394,8 +1559,14 @@
       <c r="J29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -1426,8 +1597,14 @@
       <c r="J30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -1458,8 +1635,14 @@
       <c r="J31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -1490,8 +1673,14 @@
       <c r="J32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -1522,8 +1711,14 @@
       <c r="J33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -1552,6 +1747,12 @@
         <v>35</v>
       </c>
       <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E4273-AD01-472F-B7D3-3A77867681CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755DA89E-6174-4FA0-A6E4-FDADBCFCBC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>P/5</t>
+  </si>
+  <si>
+    <t>P/3</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -464,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +532,11 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="35" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>33</v>
       </c>
@@ -500,8 +558,17 @@
       <c r="J1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -536,14 +603,13 @@
         <v>45341</v>
       </c>
       <c r="L2" s="1">
-        <v>23</v>
-      </c>
-      <c r="N2">
-        <f ca="1">RANDBETWEEN(1,32)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45345</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -580,8 +646,11 @@
       <c r="L3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -618,8 +687,11 @@
       <c r="L4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125245</v>
       </c>
@@ -651,13 +723,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -694,8 +769,11 @@
       <c r="L6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -732,8 +810,11 @@
       <c r="L7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -770,8 +851,11 @@
       <c r="L8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -808,8 +892,11 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -846,8 +933,11 @@
       <c r="L10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -884,8 +974,11 @@
       <c r="L11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -922,8 +1015,11 @@
       <c r="L12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -960,8 +1056,11 @@
       <c r="L13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -998,8 +1097,11 @@
       <c r="L14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1033,8 +1135,11 @@
       <c r="L15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1071,8 +1176,11 @@
       <c r="L16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1109,8 +1217,11 @@
       <c r="L17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1147,8 +1258,11 @@
       <c r="L18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1185,8 +1299,11 @@
       <c r="L19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1223,8 +1340,11 @@
       <c r="L20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1261,8 +1381,11 @@
       <c r="L21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1299,8 +1422,11 @@
       <c r="L22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1337,8 +1463,11 @@
       <c r="L23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1375,8 +1504,11 @@
       <c r="L24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1413,8 +1545,11 @@
       <c r="L25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1451,8 +1586,11 @@
       <c r="L26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1489,8 +1627,11 @@
       <c r="L27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1527,8 +1668,11 @@
       <c r="L28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1565,8 +1709,11 @@
       <c r="L29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -1603,8 +1750,11 @@
       <c r="L30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -1641,8 +1791,11 @@
       <c r="L31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -1679,8 +1832,11 @@
       <c r="L32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -1717,8 +1873,11 @@
       <c r="L33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -1753,6 +1912,9 @@
         <v>35</v>
       </c>
       <c r="L34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1760,6 +1922,30 @@
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
+  <conditionalFormatting sqref="D3:D34">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:M34">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:AB34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755DA89E-6174-4FA0-A6E4-FDADBCFCBC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97276A67-F02D-44E0-8B2F-72E10FB36BB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>P/5</t>
-  </si>
-  <si>
-    <t>P/3</t>
   </si>
 </sst>
 </file>
@@ -194,21 +191,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -229,6 +216,26 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -521,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,10 +540,11 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="35" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="35" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>33</v>
       </c>
@@ -567,8 +575,11 @@
       <c r="M1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -608,8 +619,11 @@
       <c r="M2" s="1">
         <v>45348</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -649,8 +663,11 @@
       <c r="M3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -690,8 +707,11 @@
       <c r="M4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125245</v>
       </c>
@@ -731,8 +751,11 @@
       <c r="M5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -772,8 +795,11 @@
       <c r="M6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -813,8 +839,11 @@
       <c r="M7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -854,8 +883,11 @@
       <c r="M8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -895,8 +927,11 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -936,8 +971,11 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -977,8 +1015,11 @@
       <c r="M11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1018,8 +1059,11 @@
       <c r="M12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1059,8 +1103,11 @@
       <c r="M13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1100,8 +1147,11 @@
       <c r="M14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1138,8 +1188,11 @@
       <c r="M15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1179,8 +1232,11 @@
       <c r="M16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1220,8 +1276,11 @@
       <c r="M17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1261,8 +1320,11 @@
       <c r="M18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1302,8 +1364,11 @@
       <c r="M19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1343,8 +1408,11 @@
       <c r="M20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1384,8 +1452,11 @@
       <c r="M21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1425,8 +1496,11 @@
       <c r="M22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1466,8 +1540,11 @@
       <c r="M23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1505,10 +1582,13 @@
         <v>35</v>
       </c>
       <c r="M24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1548,8 +1628,11 @@
       <c r="M25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1589,8 +1672,11 @@
       <c r="M26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1630,8 +1716,11 @@
       <c r="M27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1671,8 +1760,11 @@
       <c r="M28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1712,8 +1804,11 @@
       <c r="M29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -1753,8 +1848,11 @@
       <c r="M30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -1794,8 +1892,11 @@
       <c r="M31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -1835,8 +1936,11 @@
       <c r="M32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -1876,8 +1980,11 @@
       <c r="M33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -1915,6 +2022,9 @@
         <v>35</v>
       </c>
       <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1923,22 +2033,30 @@
     <sortCondition ref="B2"/>
   </sortState>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:M34">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:AB34">
+  <conditionalFormatting sqref="O3:AB34">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97276A67-F02D-44E0-8B2F-72E10FB36BB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A1A8D-EDED-46E3-96C1-B28250729CC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>P/5</t>
+  </si>
+  <si>
+    <t>P/4</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -236,21 +239,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,11 +528,11 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="35" width="6.140625" customWidth="1"/>
+    <col min="14" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="32" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>33</v>
       </c>
@@ -578,8 +566,14 @@
       <c r="N1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -622,8 +616,14 @@
       <c r="N2" s="1">
         <v>45352</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1">
+        <v>45355</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -666,8 +666,11 @@
       <c r="N3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -710,8 +713,11 @@
       <c r="N4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125245</v>
       </c>
@@ -754,8 +760,11 @@
       <c r="N5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -798,8 +807,11 @@
       <c r="N6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -842,8 +854,11 @@
       <c r="N7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -886,8 +901,11 @@
       <c r="N8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -930,8 +948,11 @@
       <c r="N9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -974,8 +995,11 @@
       <c r="N10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1018,8 +1042,11 @@
       <c r="N11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1062,8 +1089,11 @@
       <c r="N12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1106,8 +1136,11 @@
       <c r="N13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1150,8 +1183,11 @@
       <c r="N14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1191,8 +1227,11 @@
       <c r="N15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1235,8 +1274,11 @@
       <c r="N16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1279,8 +1321,11 @@
       <c r="N17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1323,8 +1368,11 @@
       <c r="N18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1367,8 +1415,11 @@
       <c r="N19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1411,8 +1462,11 @@
       <c r="N20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1455,8 +1509,11 @@
       <c r="N21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1499,8 +1556,11 @@
       <c r="N22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1543,8 +1603,11 @@
       <c r="N23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1587,8 +1650,11 @@
       <c r="N24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1631,8 +1697,11 @@
       <c r="N25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1675,8 +1744,11 @@
       <c r="N26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1719,8 +1791,11 @@
       <c r="N27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1763,8 +1838,11 @@
       <c r="N28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1807,8 +1885,11 @@
       <c r="N29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -1851,8 +1932,11 @@
       <c r="N30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -1895,8 +1979,11 @@
       <c r="N31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -1939,8 +2026,11 @@
       <c r="N32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -1983,8 +2073,11 @@
       <c r="N33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -2025,6 +2118,9 @@
         <v>35</v>
       </c>
       <c r="N34" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2032,27 +2128,19 @@
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="D3:D34 O3:Y34">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:M34">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:AB34">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A1A8D-EDED-46E3-96C1-B28250729CC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA719A1-41EB-4358-8482-E9145C2FA97F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,11 +528,11 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="32" width="6.140625" customWidth="1"/>
+    <col min="14" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="32" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>33</v>
       </c>
@@ -572,8 +572,14 @@
       <c r="P1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -622,8 +628,16 @@
       <c r="P2" s="1">
         <v>45359</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1">
+        <v>45362</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45366</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -669,8 +683,11 @@
       <c r="O3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -716,8 +733,11 @@
       <c r="O4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125245</v>
       </c>
@@ -763,8 +783,11 @@
       <c r="O5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -810,8 +833,11 @@
       <c r="O6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -857,8 +883,11 @@
       <c r="O7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -904,8 +933,11 @@
       <c r="O8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -951,8 +983,11 @@
       <c r="O9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -998,8 +1033,11 @@
       <c r="O10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1045,8 +1083,11 @@
       <c r="O11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1092,8 +1133,11 @@
       <c r="O12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1139,8 +1183,11 @@
       <c r="O13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1186,8 +1233,11 @@
       <c r="O14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1230,8 +1280,11 @@
       <c r="O15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1278,7 +1331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1324,8 +1377,11 @@
       <c r="O17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1371,8 +1427,11 @@
       <c r="O18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1418,8 +1477,11 @@
       <c r="O19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1465,8 +1527,11 @@
       <c r="O20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1512,8 +1577,11 @@
       <c r="O21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1559,8 +1627,11 @@
       <c r="O22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1606,8 +1677,11 @@
       <c r="O23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1653,8 +1727,11 @@
       <c r="O24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1700,8 +1777,11 @@
       <c r="O25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1747,8 +1827,11 @@
       <c r="O26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1794,8 +1877,11 @@
       <c r="O27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1841,8 +1927,11 @@
       <c r="O28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1888,8 +1977,11 @@
       <c r="O29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -1935,8 +2027,11 @@
       <c r="O30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -1982,8 +2077,11 @@
       <c r="O31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -2029,8 +2127,11 @@
       <c r="O32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -2076,8 +2177,11 @@
       <c r="O33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -2121,6 +2225,9 @@
         <v>35</v>
       </c>
       <c r="O34" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" t="s">
         <v>35</v>
       </c>
     </row>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA719A1-41EB-4358-8482-E9145C2FA97F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D29A0-26D7-44AB-807E-C765A3246336}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>P/4</t>
+  </si>
+  <si>
+    <t>Pedro Henrique de Lima Batista</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +689,9 @@
       <c r="P3" t="s">
         <v>35</v>
       </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -736,6 +742,9 @@
       <c r="P4" t="s">
         <v>35</v>
       </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -786,6 +795,9 @@
       <c r="P5" t="s">
         <v>36</v>
       </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -836,6 +848,9 @@
       <c r="P6" t="s">
         <v>35</v>
       </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -886,6 +901,9 @@
       <c r="P7" t="s">
         <v>35</v>
       </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -936,6 +954,9 @@
       <c r="P8" t="s">
         <v>35</v>
       </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -986,6 +1007,9 @@
       <c r="P9" t="s">
         <v>35</v>
       </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1036,6 +1060,9 @@
       <c r="P10" t="s">
         <v>35</v>
       </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1086,6 +1113,9 @@
       <c r="P11" t="s">
         <v>35</v>
       </c>
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1136,6 +1166,9 @@
       <c r="P12" t="s">
         <v>35</v>
       </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1186,6 +1219,9 @@
       <c r="P13" t="s">
         <v>36</v>
       </c>
+      <c r="Q13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1236,6 +1272,9 @@
       <c r="P14" t="s">
         <v>35</v>
       </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1283,6 +1322,9 @@
       <c r="P15" t="s">
         <v>35</v>
       </c>
+      <c r="Q15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1330,8 +1372,14 @@
       <c r="O16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1380,8 +1428,11 @@
       <c r="P17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1430,8 +1481,11 @@
       <c r="P18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1480,8 +1534,11 @@
       <c r="P19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1530,8 +1587,11 @@
       <c r="P20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1580,8 +1640,11 @@
       <c r="P21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1630,8 +1693,11 @@
       <c r="P22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1680,8 +1746,11 @@
       <c r="P23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1730,8 +1799,11 @@
       <c r="P24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1780,8 +1852,11 @@
       <c r="P25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1830,8 +1905,11 @@
       <c r="P26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1880,8 +1958,11 @@
       <c r="P27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1930,8 +2011,11 @@
       <c r="P28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -1980,8 +2064,11 @@
       <c r="P29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -2030,8 +2117,11 @@
       <c r="P30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -2080,8 +2170,11 @@
       <c r="P31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -2130,8 +2223,11 @@
       <c r="P32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -2180,8 +2276,11 @@
       <c r="P33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -2228,6 +2327,26 @@
         <v>35</v>
       </c>
       <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="O35" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2235,7 +2354,7 @@
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:D34 O3:Y34">
+  <conditionalFormatting sqref="D3:D34 O3:Y34 O35:Q35">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\sesi2024\2em\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D29A0-26D7-44AB-807E-C765A3246336}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55407705-A1EC-4917-8BD2-2E0877421EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Marcos Vinicius de Oliveira</t>
-  </si>
-  <si>
-    <t>Davi Henrique Bordini Mendonça</t>
   </si>
   <si>
     <t>Guilherme Canina</t>
@@ -519,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,55 +528,61 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="32" width="6.140625" customWidth="1"/>
+    <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="32" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
       <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
       <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
       <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
-        <v>34</v>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -590,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1">
         <v>45313</v>
@@ -637,8 +640,12 @@
       <c r="R2" s="1">
         <v>45366</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="S2" s="1">
+        <v>45369</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45373</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -651,46 +658,55 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -704,99 +720,81 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>24125245</v>
-      </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -810,46 +808,55 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -857,52 +864,61 @@
         <v>24125329</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -910,52 +926,61 @@
         <v>24125304</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -963,52 +988,61 @@
         <v>24125331</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1016,52 +1050,61 @@
         <v>24125308</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1069,52 +1112,61 @@
         <v>24125247</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1128,46 +1180,55 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q12" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1181,46 +1242,55 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1234,96 +1304,114 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>36</v>
+      <c r="S15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1331,373 +1419,436 @@
         <v>24125249</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1708,49 +1859,58 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1761,49 +1921,58 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -1814,49 +1983,58 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="R25" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -1867,49 +2045,58 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R26" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -1920,49 +2107,58 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R27" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -1973,381 +2169,427 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R29" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R30" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R31" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="R32" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35">
-        <v>33</v>
-      </c>
-      <c r="O35" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55407705-A1EC-4917-8BD2-2E0877421EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C355A75-ADF7-498E-8F99-E05F84E84A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -157,8 +157,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,10 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,10 +538,11 @@
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="32" width="6.140625" customWidth="1"/>
+    <col min="21" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="32" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -584,8 +594,14 @@
       <c r="T1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -646,8 +662,14 @@
       <c r="T2" s="1">
         <v>45373</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="1">
+        <v>45383</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -708,8 +730,14 @@
       <c r="T3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -770,8 +798,14 @@
       <c r="T4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -796,8 +830,14 @@
       <c r="T5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -858,8 +898,14 @@
       <c r="T6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -920,8 +966,14 @@
       <c r="T7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -982,8 +1034,14 @@
       <c r="T8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -1044,8 +1102,14 @@
       <c r="T9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -1106,8 +1170,14 @@
       <c r="T10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1168,8 +1238,14 @@
       <c r="T11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1230,8 +1306,14 @@
       <c r="T12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1292,8 +1374,14 @@
       <c r="T13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1354,8 +1442,14 @@
       <c r="T14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1413,8 +1507,14 @@
       <c r="T15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1475,8 +1575,14 @@
       <c r="T16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1537,8 +1643,14 @@
       <c r="T17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1599,8 +1711,14 @@
       <c r="T18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1661,8 +1779,14 @@
       <c r="T19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1723,8 +1847,14 @@
       <c r="T20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>34</v>
+      </c>
+      <c r="V20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1785,8 +1915,14 @@
       <c r="T21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1847,8 +1983,14 @@
       <c r="T22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -1909,8 +2051,14 @@
       <c r="T23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -1971,8 +2119,14 @@
       <c r="T24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>34</v>
+      </c>
+      <c r="V24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -2033,8 +2187,14 @@
       <c r="T25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -2095,8 +2255,14 @@
       <c r="T26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -2157,8 +2323,14 @@
       <c r="T27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -2219,8 +2391,14 @@
       <c r="T28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -2281,8 +2459,14 @@
       <c r="T29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -2343,8 +2527,14 @@
       <c r="T30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -2405,8 +2595,14 @@
       <c r="T31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -2467,8 +2663,14 @@
       <c r="T32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -2529,8 +2731,14 @@
       <c r="T33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -2589,6 +2797,12 @@
         <v>34</v>
       </c>
       <c r="T34" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34" t="s">
         <v>34</v>
       </c>
     </row>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C355A75-ADF7-498E-8F99-E05F84E84A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F0D93D-AF43-4EAA-AA03-1A8618A10C8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,11 +538,11 @@
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="32" width="6.140625" customWidth="1"/>
+    <col min="21" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -600,8 +600,14 @@
       <c r="V1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -668,8 +674,14 @@
       <c r="V2" s="1">
         <v>45387</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="1">
+        <v>45394</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -737,7 +749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -805,7 +817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -837,7 +849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -905,7 +917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -973,7 +985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1513,8 +1525,11 @@
       <c r="V15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1582,7 +1597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1650,7 +1665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1786,7 +1801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1854,7 +1869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1922,7 +1937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -1990,7 +2005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2058,7 +2073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2126,7 +2141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -2194,7 +2209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -2262,7 +2277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -2330,7 +2345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -2397,8 +2412,11 @@
       <c r="V28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -2534,7 +2552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -2602,7 +2620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F0D93D-AF43-4EAA-AA03-1A8618A10C8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5E988-B9D1-4D96-9051-918C63CE55E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Pedro Henrique de Lima Batista</t>
+  </si>
+  <si>
+    <t>4/P</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,6 +751,9 @@
       <c r="V3" t="s">
         <v>34</v>
       </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -816,6 +822,9 @@
       <c r="V4" t="s">
         <v>34</v>
       </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -848,6 +857,9 @@
       <c r="V5" t="s">
         <v>34</v>
       </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -916,6 +928,9 @@
       <c r="V6" t="s">
         <v>34</v>
       </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -984,6 +999,9 @@
       <c r="V7" t="s">
         <v>34</v>
       </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1052,6 +1070,9 @@
       <c r="V8" t="s">
         <v>34</v>
       </c>
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1120,6 +1141,9 @@
       <c r="V9" t="s">
         <v>34</v>
       </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1188,6 +1212,9 @@
       <c r="V10" t="s">
         <v>34</v>
       </c>
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1256,6 +1283,9 @@
       <c r="V11" t="s">
         <v>34</v>
       </c>
+      <c r="W11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1324,6 +1354,9 @@
       <c r="V12" t="s">
         <v>34</v>
       </c>
+      <c r="W12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1392,6 +1425,9 @@
       <c r="V13" t="s">
         <v>34</v>
       </c>
+      <c r="W13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1460,6 +1496,9 @@
       <c r="V14" t="s">
         <v>34</v>
       </c>
+      <c r="W14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1596,6 +1635,9 @@
       <c r="V16" t="s">
         <v>34</v>
       </c>
+      <c r="W16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1664,6 +1706,9 @@
       <c r="V17" t="s">
         <v>34</v>
       </c>
+      <c r="W17" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1732,6 +1777,9 @@
       <c r="V18" t="s">
         <v>34</v>
       </c>
+      <c r="W18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1800,6 +1848,9 @@
       <c r="V19" t="s">
         <v>34</v>
       </c>
+      <c r="W19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1868,6 +1919,9 @@
       <c r="V20" t="s">
         <v>34</v>
       </c>
+      <c r="W20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1936,6 +1990,9 @@
       <c r="V21" t="s">
         <v>34</v>
       </c>
+      <c r="W21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2004,6 +2061,9 @@
       <c r="V22" t="s">
         <v>34</v>
       </c>
+      <c r="W22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2072,6 +2132,9 @@
       <c r="V23" t="s">
         <v>34</v>
       </c>
+      <c r="W23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2140,6 +2203,9 @@
       <c r="V24" t="s">
         <v>34</v>
       </c>
+      <c r="W24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2208,6 +2274,9 @@
       <c r="V25" t="s">
         <v>34</v>
       </c>
+      <c r="W25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2276,6 +2345,9 @@
       <c r="V26" t="s">
         <v>34</v>
       </c>
+      <c r="W26" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2344,6 +2416,9 @@
       <c r="V27" t="s">
         <v>34</v>
       </c>
+      <c r="W27" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2413,7 +2488,7 @@
         <v>34</v>
       </c>
       <c r="W28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2483,6 +2558,9 @@
       <c r="V29" t="s">
         <v>34</v>
       </c>
+      <c r="W29" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2551,6 +2629,9 @@
       <c r="V30" t="s">
         <v>34</v>
       </c>
+      <c r="W30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2619,6 +2700,9 @@
       <c r="V31" t="s">
         <v>34</v>
       </c>
+      <c r="W31" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2687,8 +2771,11 @@
       <c r="V32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -2755,8 +2842,11 @@
       <c r="V33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -2821,6 +2911,9 @@
         <v>34</v>
       </c>
       <c r="V34" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" t="s">
         <v>34</v>
       </c>
     </row>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5E988-B9D1-4D96-9051-918C63CE55E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42939FF3-026E-43C5-8833-4B5813013376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="44">
   <si>
     <t>Aluno</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>4/P</t>
+  </si>
+  <si>
+    <t>3/P</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,11 +544,11 @@
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="6.140625" customWidth="1"/>
+    <col min="21" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -609,8 +612,17 @@
       <c r="X1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -683,8 +695,17 @@
       <c r="X2" s="1">
         <v>45397</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="1">
+        <v>45401</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45404</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -754,8 +775,14 @@
       <c r="W3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -825,8 +852,14 @@
       <c r="W4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -860,8 +893,14 @@
       <c r="W5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -931,8 +970,14 @@
       <c r="W6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -1002,8 +1047,14 @@
       <c r="W7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -1073,8 +1124,14 @@
       <c r="W8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -1144,8 +1201,14 @@
       <c r="W9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -1215,8 +1278,14 @@
       <c r="W10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1286,8 +1355,14 @@
       <c r="W11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1357,8 +1432,14 @@
       <c r="W12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1428,8 +1509,14 @@
       <c r="W13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1499,8 +1586,14 @@
       <c r="W14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1567,8 +1660,14 @@
       <c r="W15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1638,8 +1737,14 @@
       <c r="W16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1709,8 +1814,14 @@
       <c r="W17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1780,8 +1891,14 @@
       <c r="W18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1851,8 +1968,14 @@
       <c r="W19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -1922,8 +2045,14 @@
       <c r="W20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -1993,8 +2122,14 @@
       <c r="W21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2064,8 +2199,14 @@
       <c r="W22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2135,8 +2276,14 @@
       <c r="W23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2206,8 +2353,14 @@
       <c r="W24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -2277,8 +2430,14 @@
       <c r="W25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -2348,8 +2507,14 @@
       <c r="W26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -2419,8 +2584,14 @@
       <c r="W27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -2490,8 +2661,14 @@
       <c r="W28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -2561,8 +2738,14 @@
       <c r="W29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -2632,8 +2815,14 @@
       <c r="W30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -2703,8 +2892,14 @@
       <c r="W31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -2774,8 +2969,14 @@
       <c r="W32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -2845,8 +3046,14 @@
       <c r="W33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -2914,6 +3121,12 @@
         <v>34</v>
       </c>
       <c r="W34" t="s">
+        <v>34</v>
+      </c>
+      <c r="X34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y34" t="s">
         <v>34</v>
       </c>
     </row>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42939FF3-026E-43C5-8833-4B5813013376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D6DBD9-B10F-4832-A6EC-D9C5ECE2FA4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="44">
   <si>
     <t>Aluno</t>
   </si>
@@ -209,7 +209,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -534,7 +549,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +796,12 @@
       <c r="Y3" t="s">
         <v>34</v>
       </c>
+      <c r="Z3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -858,6 +879,12 @@
       <c r="Y4" t="s">
         <v>43</v>
       </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -899,6 +926,12 @@
       <c r="Y5" t="s">
         <v>34</v>
       </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -976,6 +1009,12 @@
       <c r="Y6" t="s">
         <v>34</v>
       </c>
+      <c r="Z6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1053,6 +1092,12 @@
       <c r="Y7" t="s">
         <v>34</v>
       </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1130,6 +1175,12 @@
       <c r="Y8" t="s">
         <v>34</v>
       </c>
+      <c r="Z8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1207,6 +1258,12 @@
       <c r="Y9" t="s">
         <v>34</v>
       </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1284,6 +1341,12 @@
       <c r="Y10" t="s">
         <v>34</v>
       </c>
+      <c r="Z10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1361,6 +1424,12 @@
       <c r="Y11" t="s">
         <v>34</v>
       </c>
+      <c r="Z11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1438,6 +1507,12 @@
       <c r="Y12" t="s">
         <v>34</v>
       </c>
+      <c r="Z12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1515,6 +1590,12 @@
       <c r="Y13" t="s">
         <v>34</v>
       </c>
+      <c r="Z13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1592,6 +1673,12 @@
       <c r="Y14" t="s">
         <v>34</v>
       </c>
+      <c r="Z14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1666,6 +1753,12 @@
       <c r="Y15" t="s">
         <v>34</v>
       </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1743,8 +1836,14 @@
       <c r="Y16" t="s">
         <v>34</v>
       </c>
+      <c r="Z16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1820,8 +1919,14 @@
       <c r="Y17" t="s">
         <v>34</v>
       </c>
+      <c r="Z17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -1897,8 +2002,14 @@
       <c r="Y18" t="s">
         <v>34</v>
       </c>
+      <c r="Z18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -1974,8 +2085,14 @@
       <c r="Y19" t="s">
         <v>34</v>
       </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -2051,8 +2168,14 @@
       <c r="Y20" t="s">
         <v>34</v>
       </c>
+      <c r="Z20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -2128,8 +2251,14 @@
       <c r="Y21" t="s">
         <v>34</v>
       </c>
+      <c r="Z21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2205,8 +2334,14 @@
       <c r="Y22" t="s">
         <v>34</v>
       </c>
+      <c r="Z22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2282,8 +2417,14 @@
       <c r="Y23" t="s">
         <v>34</v>
       </c>
+      <c r="Z23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2359,8 +2500,14 @@
       <c r="Y24" t="s">
         <v>34</v>
       </c>
+      <c r="Z24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -2436,8 +2583,14 @@
       <c r="Y25" t="s">
         <v>40</v>
       </c>
+      <c r="Z25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -2513,8 +2666,14 @@
       <c r="Y26" t="s">
         <v>34</v>
       </c>
+      <c r="Z26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -2590,8 +2749,14 @@
       <c r="Y27" t="s">
         <v>34</v>
       </c>
+      <c r="Z27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -2667,8 +2832,14 @@
       <c r="Y28" t="s">
         <v>34</v>
       </c>
+      <c r="Z28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -2744,8 +2915,14 @@
       <c r="Y29" t="s">
         <v>34</v>
       </c>
+      <c r="Z29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -2821,8 +2998,14 @@
       <c r="Y30" t="s">
         <v>34</v>
       </c>
+      <c r="Z30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -2898,8 +3081,14 @@
       <c r="Y31" t="s">
         <v>34</v>
       </c>
+      <c r="Z31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -2975,8 +3164,14 @@
       <c r="Y32" t="s">
         <v>34</v>
       </c>
+      <c r="Z32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -3052,8 +3247,14 @@
       <c r="Y33" t="s">
         <v>34</v>
       </c>
+      <c r="Z33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -3127,6 +3328,12 @@
         <v>34</v>
       </c>
       <c r="Y34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3135,6 +3342,14 @@
     <sortCondition ref="B2"/>
   </sortState>
   <conditionalFormatting sqref="D3:D34 O3:Y34 O35:Q35">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:M34">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"f"</formula>
     </cfRule>
@@ -3142,15 +3357,15 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:M34">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="N3:N34">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N34">
+  <conditionalFormatting sqref="Z3:AA34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D6DBD9-B10F-4832-A6EC-D9C5ECE2FA4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54292929-D819-4F90-AEB9-BB778A8AAF6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="44">
   <si>
     <t>Aluno</t>
   </si>
@@ -546,24 +546,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="6.140625" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -636,8 +634,14 @@
       <c r="AA1" t="s">
         <v>33</v>
       </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -719,8 +723,16 @@
       <c r="AA2" s="1">
         <v>45408</v>
       </c>
+      <c r="AB2" s="1">
+        <v>45411</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45415</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -802,8 +814,11 @@
       <c r="AA3" t="s">
         <v>34</v>
       </c>
+      <c r="AB3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -885,8 +900,11 @@
       <c r="AA4" t="s">
         <v>34</v>
       </c>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -932,8 +950,11 @@
       <c r="AA5" t="s">
         <v>34</v>
       </c>
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -1015,8 +1036,11 @@
       <c r="AA6" t="s">
         <v>34</v>
       </c>
+      <c r="AB6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -1098,8 +1122,11 @@
       <c r="AA7" t="s">
         <v>34</v>
       </c>
+      <c r="AB7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -1181,8 +1208,11 @@
       <c r="AA8" t="s">
         <v>35</v>
       </c>
+      <c r="AB8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -1264,8 +1294,11 @@
       <c r="AA9" t="s">
         <v>34</v>
       </c>
+      <c r="AB9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -1347,8 +1380,11 @@
       <c r="AA10" t="s">
         <v>34</v>
       </c>
+      <c r="AB10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1430,8 +1466,11 @@
       <c r="AA11" t="s">
         <v>34</v>
       </c>
+      <c r="AB11" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1513,8 +1552,11 @@
       <c r="AA12" t="s">
         <v>34</v>
       </c>
+      <c r="AB12" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1596,8 +1638,11 @@
       <c r="AA13" t="s">
         <v>34</v>
       </c>
+      <c r="AB13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1679,8 +1724,11 @@
       <c r="AA14" t="s">
         <v>34</v>
       </c>
+      <c r="AB14" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1759,8 +1807,11 @@
       <c r="AA15" t="s">
         <v>35</v>
       </c>
+      <c r="AB15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1842,8 +1893,11 @@
       <c r="AA16" t="s">
         <v>34</v>
       </c>
+      <c r="AB16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1925,8 +1979,11 @@
       <c r="AA17" t="s">
         <v>34</v>
       </c>
+      <c r="AB17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -2008,8 +2065,11 @@
       <c r="AA18" t="s">
         <v>34</v>
       </c>
+      <c r="AB18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -2091,8 +2151,11 @@
       <c r="AA19" t="s">
         <v>34</v>
       </c>
+      <c r="AB19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -2174,8 +2237,11 @@
       <c r="AA20" t="s">
         <v>35</v>
       </c>
+      <c r="AB20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -2257,8 +2323,11 @@
       <c r="AA21" t="s">
         <v>34</v>
       </c>
+      <c r="AB21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2340,8 +2409,11 @@
       <c r="AA22" t="s">
         <v>34</v>
       </c>
+      <c r="AB22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2423,8 +2495,11 @@
       <c r="AA23" t="s">
         <v>34</v>
       </c>
+      <c r="AB23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2506,8 +2581,11 @@
       <c r="AA24" t="s">
         <v>34</v>
       </c>
+      <c r="AB24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -2589,8 +2667,11 @@
       <c r="AA25" t="s">
         <v>34</v>
       </c>
+      <c r="AB25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -2672,8 +2753,11 @@
       <c r="AA26" t="s">
         <v>34</v>
       </c>
+      <c r="AB26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -2755,8 +2839,11 @@
       <c r="AA27" t="s">
         <v>34</v>
       </c>
+      <c r="AB27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -2838,8 +2925,11 @@
       <c r="AA28" t="s">
         <v>34</v>
       </c>
+      <c r="AB28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -2921,8 +3011,11 @@
       <c r="AA29" t="s">
         <v>34</v>
       </c>
+      <c r="AB29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -3004,8 +3097,11 @@
       <c r="AA30" t="s">
         <v>34</v>
       </c>
+      <c r="AB30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -3087,8 +3183,11 @@
       <c r="AA31" t="s">
         <v>34</v>
       </c>
+      <c r="AB31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -3170,8 +3269,11 @@
       <c r="AA32" t="s">
         <v>34</v>
       </c>
+      <c r="AB32" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -3253,8 +3355,11 @@
       <c r="AA33" t="s">
         <v>34</v>
       </c>
+      <c r="AB33" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -3334,6 +3439,9 @@
         <v>34</v>
       </c>
       <c r="AA34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3341,7 +3449,7 @@
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:D34 O3:Y34 O35:Q35">
+  <conditionalFormatting sqref="D3:D34 O3:Y34 O35:Q35 AB3:AB34">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54292929-D819-4F90-AEB9-BB778A8AAF6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEB7F25-473A-4380-9CEF-1547A138067B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="44">
   <si>
     <t>Aluno</t>
   </si>
@@ -549,7 +549,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,6 +817,9 @@
       <c r="AB3" t="s">
         <v>34</v>
       </c>
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -903,6 +906,9 @@
       <c r="AB4" t="s">
         <v>34</v>
       </c>
+      <c r="AC4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -953,6 +959,9 @@
       <c r="AB5" t="s">
         <v>35</v>
       </c>
+      <c r="AC5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1039,6 +1048,9 @@
       <c r="AB6" t="s">
         <v>34</v>
       </c>
+      <c r="AC6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1125,6 +1137,9 @@
       <c r="AB7" t="s">
         <v>34</v>
       </c>
+      <c r="AC7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1211,6 +1226,9 @@
       <c r="AB8" t="s">
         <v>35</v>
       </c>
+      <c r="AC8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1297,6 +1315,9 @@
       <c r="AB9" t="s">
         <v>34</v>
       </c>
+      <c r="AC9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1383,6 +1404,9 @@
       <c r="AB10" t="s">
         <v>34</v>
       </c>
+      <c r="AC10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1469,6 +1493,9 @@
       <c r="AB11" t="s">
         <v>34</v>
       </c>
+      <c r="AC11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1555,6 +1582,9 @@
       <c r="AB12" t="s">
         <v>34</v>
       </c>
+      <c r="AC12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1641,6 +1671,9 @@
       <c r="AB13" t="s">
         <v>34</v>
       </c>
+      <c r="AC13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1727,6 +1760,9 @@
       <c r="AB14" t="s">
         <v>34</v>
       </c>
+      <c r="AC14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1810,6 +1846,9 @@
       <c r="AB15" t="s">
         <v>34</v>
       </c>
+      <c r="AC15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1896,8 +1935,11 @@
       <c r="AB16" t="s">
         <v>35</v>
       </c>
+      <c r="AC16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -1982,8 +2024,11 @@
       <c r="AB17" t="s">
         <v>34</v>
       </c>
+      <c r="AC17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -2068,8 +2113,11 @@
       <c r="AB18" t="s">
         <v>34</v>
       </c>
+      <c r="AC18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -2154,8 +2202,11 @@
       <c r="AB19" t="s">
         <v>34</v>
       </c>
+      <c r="AC19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -2240,8 +2291,11 @@
       <c r="AB20" t="s">
         <v>35</v>
       </c>
+      <c r="AC20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -2326,8 +2380,11 @@
       <c r="AB21" t="s">
         <v>34</v>
       </c>
+      <c r="AC21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2412,8 +2469,11 @@
       <c r="AB22" t="s">
         <v>34</v>
       </c>
+      <c r="AC22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2498,8 +2558,11 @@
       <c r="AB23" t="s">
         <v>34</v>
       </c>
+      <c r="AC23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2584,8 +2647,11 @@
       <c r="AB24" t="s">
         <v>35</v>
       </c>
+      <c r="AC24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -2670,8 +2736,11 @@
       <c r="AB25" t="s">
         <v>35</v>
       </c>
+      <c r="AC25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -2756,8 +2825,11 @@
       <c r="AB26" t="s">
         <v>35</v>
       </c>
+      <c r="AC26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -2842,8 +2914,11 @@
       <c r="AB27" t="s">
         <v>34</v>
       </c>
+      <c r="AC27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -2928,8 +3003,11 @@
       <c r="AB28" t="s">
         <v>34</v>
       </c>
+      <c r="AC28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -3014,8 +3092,11 @@
       <c r="AB29" t="s">
         <v>34</v>
       </c>
+      <c r="AC29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -3100,8 +3181,11 @@
       <c r="AB30" t="s">
         <v>34</v>
       </c>
+      <c r="AC30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -3186,8 +3270,11 @@
       <c r="AB31" t="s">
         <v>34</v>
       </c>
+      <c r="AC31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -3272,8 +3359,11 @@
       <c r="AB32" t="s">
         <v>35</v>
       </c>
+      <c r="AC32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -3358,8 +3448,11 @@
       <c r="AB33" t="s">
         <v>35</v>
       </c>
+      <c r="AC33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -3442,6 +3535,9 @@
         <v>34</v>
       </c>
       <c r="AB34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3449,7 +3545,7 @@
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:D34 O3:Y34 O35:Q35 AB3:AB34">
+  <conditionalFormatting sqref="D3:D34 O3:Y34 O35:Q35 AB3:AC34">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEB7F25-473A-4380-9CEF-1547A138067B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EF6BF6-DB4D-4909-863C-E6EFD635DC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="45">
   <si>
     <t>Aluno</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>3/P</t>
+  </si>
+  <si>
+    <t>P/3</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1497,7 @@
         <v>34</v>
       </c>
       <c r="AC11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -1583,7 +1586,7 @@
         <v>34</v>
       </c>
       <c r="AC12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -1761,7 +1764,7 @@
         <v>34</v>
       </c>
       <c r="AC14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2292,7 +2295,7 @@
         <v>35</v>
       </c>
       <c r="AC20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -2559,7 +2562,7 @@
         <v>34</v>
       </c>
       <c r="AC23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3538,7 +3541,7 @@
         <v>34</v>
       </c>
       <c r="AC34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EF6BF6-DB4D-4909-863C-E6EFD635DC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EF1717-2005-4396-B3B8-671CD9B35177}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="44">
   <si>
     <t>Aluno</t>
   </si>
@@ -147,35 +147,24 @@
     <t>P/5</t>
   </si>
   <si>
-    <t>P/4</t>
-  </si>
-  <si>
     <t>Pedro Henrique de Lima Batista</t>
   </si>
   <si>
-    <t>4/P</t>
-  </si>
-  <si>
     <t>3/P</t>
   </si>
   <si>
     <t>P/3</t>
+  </si>
+  <si>
+    <t>5/P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,16 +192,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +564,11 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="30" max="32" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -620,31 +624,40 @@
         <v>32</v>
       </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
         <v>33</v>
       </c>
       <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>33</v>
       </c>
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -706,36 +719,43 @@
         <v>45373</v>
       </c>
       <c r="U2" s="1">
+        <v>45376</v>
+      </c>
+      <c r="V2" s="1">
         <v>45383</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>45387</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>45394</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>45397</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>45401</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>45404</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>45408</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>45411</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>45415</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
+      <c r="AE2" s="1">
+        <v>45418</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45422</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -823,8 +843,14 @@
       <c r="AC3" t="s">
         <v>34</v>
       </c>
+      <c r="AD3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -898,10 +924,10 @@
         <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s">
         <v>34</v>
@@ -912,10 +938,16 @@
       <c r="AC4" t="s">
         <v>34</v>
       </c>
+      <c r="AD4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -960,13 +992,19 @@
         <v>34</v>
       </c>
       <c r="AB5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -1054,8 +1092,14 @@
       <c r="AC6" t="s">
         <v>34</v>
       </c>
+      <c r="AD6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -1143,8 +1187,14 @@
       <c r="AC7" t="s">
         <v>34</v>
       </c>
+      <c r="AD7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -1224,16 +1274,22 @@
         <v>34</v>
       </c>
       <c r="AA8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="s">
         <v>35</v>
       </c>
       <c r="AC8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -1321,8 +1377,14 @@
       <c r="AC9" t="s">
         <v>34</v>
       </c>
+      <c r="AD9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -1410,8 +1472,14 @@
       <c r="AC10" t="s">
         <v>34</v>
       </c>
+      <c r="AD10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1497,10 +1565,16 @@
         <v>34</v>
       </c>
       <c r="AC11" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1586,10 +1660,16 @@
         <v>34</v>
       </c>
       <c r="AC12" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1677,8 +1757,14 @@
       <c r="AC13" t="s">
         <v>34</v>
       </c>
+      <c r="AD13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1764,10 +1850,16 @@
         <v>34</v>
       </c>
       <c r="AC14" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1817,7 +1909,7 @@
         <v>35</v>
       </c>
       <c r="R15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
         <v>34</v>
@@ -1832,10 +1924,10 @@
         <v>34</v>
       </c>
       <c r="W15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y15" t="s">
         <v>34</v>
@@ -1844,16 +1936,22 @@
         <v>34</v>
       </c>
       <c r="AA15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC15" t="s">
         <v>34</v>
       </c>
+      <c r="AD15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -1897,7 +1995,7 @@
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
@@ -1936,13 +2034,19 @@
         <v>34</v>
       </c>
       <c r="AB16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -2003,10 +2107,10 @@
       <c r="T17" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="U17" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="W17" t="s">
@@ -2030,8 +2134,14 @@
       <c r="AC17" t="s">
         <v>34</v>
       </c>
+      <c r="AD17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -2119,8 +2229,14 @@
       <c r="AC18" t="s">
         <v>34</v>
       </c>
+      <c r="AD18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -2208,8 +2324,14 @@
       <c r="AC19" t="s">
         <v>34</v>
       </c>
+      <c r="AD19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -2289,16 +2411,22 @@
         <v>34</v>
       </c>
       <c r="AA20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="s">
         <v>35</v>
       </c>
       <c r="AC20" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -2386,8 +2514,14 @@
       <c r="AC21" t="s">
         <v>34</v>
       </c>
+      <c r="AD21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2475,8 +2609,14 @@
       <c r="AC22" t="s">
         <v>34</v>
       </c>
+      <c r="AD22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2562,10 +2702,16 @@
         <v>34</v>
       </c>
       <c r="AC23" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2648,13 +2794,19 @@
         <v>34</v>
       </c>
       <c r="AB24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -2725,25 +2877,31 @@
         <v>34</v>
       </c>
       <c r="X25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="s">
         <v>34</v>
       </c>
       <c r="AB25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -2826,13 +2984,19 @@
         <v>34</v>
       </c>
       <c r="AB26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -2920,8 +3084,14 @@
       <c r="AC27" t="s">
         <v>34</v>
       </c>
+      <c r="AD27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -2989,10 +3159,10 @@
         <v>34</v>
       </c>
       <c r="W28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="X28" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Y28" t="s">
         <v>34</v>
@@ -3009,8 +3179,14 @@
       <c r="AC28" t="s">
         <v>34</v>
       </c>
+      <c r="AD28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -3098,8 +3274,14 @@
       <c r="AC29" t="s">
         <v>34</v>
       </c>
+      <c r="AD29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -3187,8 +3369,14 @@
       <c r="AC30" t="s">
         <v>34</v>
       </c>
+      <c r="AD30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -3250,10 +3438,10 @@
         <v>34</v>
       </c>
       <c r="U31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W31" t="s">
         <v>34</v>
@@ -3276,8 +3464,14 @@
       <c r="AC31" t="s">
         <v>34</v>
       </c>
+      <c r="AD31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -3360,13 +3554,19 @@
         <v>34</v>
       </c>
       <c r="AB32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -3449,13 +3649,19 @@
         <v>34</v>
       </c>
       <c r="AB33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -3541,14 +3747,28 @@
         <v>34</v>
       </c>
       <c r="AC34" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:D34 O3:Y34 O35:Q35 AB3:AC34">
+  <conditionalFormatting sqref="D3:D34 O35:Q35 AC3:AD34 O3:Z34">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:M34">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
@@ -3556,15 +3776,15 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:M34">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="N3:N34">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N34">
+  <conditionalFormatting sqref="AA3:AB34">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
@@ -3572,7 +3792,7 @@
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AA34">
+  <conditionalFormatting sqref="AE3:AE34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54292929-D819-4F90-AEB9-BB778A8AAF6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50FE81D-09BB-4E31-AD84-F5CD60DCBACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="45">
   <si>
     <t>Aluno</t>
   </si>
@@ -153,26 +153,21 @@
     <t>Pedro Henrique de Lima Batista</t>
   </si>
   <si>
-    <t>4/P</t>
-  </si>
-  <si>
     <t>3/P</t>
+  </si>
+  <si>
+    <t>P/2</t>
+  </si>
+  <si>
+    <t>5/P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,46 +195,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -549,7 +512,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +855,7 @@
         <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="s">
         <v>34</v>
@@ -1209,7 +1172,7 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1302,7 +1265,7 @@
       <c r="A10">
         <v>24125308</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10">
@@ -1815,7 +1778,7 @@
       <c r="A16">
         <v>24125249</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
@@ -1894,7 +1857,7 @@
         <v>34</v>
       </c>
       <c r="AB16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -1958,7 +1921,7 @@
       <c r="T17" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" t="s">
         <v>34</v>
       </c>
       <c r="V17" t="s">
@@ -2911,7 +2874,7 @@
         <v>34</v>
       </c>
       <c r="W28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s">
         <v>34</v>
@@ -2933,7 +2896,7 @@
       <c r="A29">
         <v>24125299</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="C29">
@@ -3019,7 +2982,7 @@
       <c r="A30">
         <v>24125301</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30">
@@ -3446,38 +3409,22 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:D34 O3:Y34 O35:Q35 AB3:AB34">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+  <conditionalFormatting sqref="D3:AB34">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:M34">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="O35:Q35">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N34">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AA34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F8B089-3E5D-4418-91F4-2837FEF35C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D32A5-5318-424D-9AE4-CA244D3198CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="44">
   <si>
     <t>Aluno</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>P/5</t>
-  </si>
-  <si>
-    <t>P/4</t>
   </si>
   <si>
     <t>Pedro Henrique de Lima Batista</t>
@@ -527,7 +524,7 @@
   <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +533,7 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -621,6 +618,12 @@
       <c r="AD1" t="s">
         <v>33</v>
       </c>
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -713,8 +716,12 @@
       <c r="AD2" s="1">
         <v>45415</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+      <c r="AE2" s="1">
+        <v>45417</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45422</v>
+      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -807,6 +814,9 @@
       <c r="AD3" t="s">
         <v>34</v>
       </c>
+      <c r="AE3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -885,7 +895,7 @@
         <v>34</v>
       </c>
       <c r="Z4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s">
         <v>34</v>
@@ -897,12 +907,15 @@
         <v>34</v>
       </c>
       <c r="AD4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -953,6 +966,9 @@
         <v>35</v>
       </c>
       <c r="AD5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1047,6 +1063,9 @@
       <c r="AD6" t="s">
         <v>34</v>
       </c>
+      <c r="AE6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1139,6 +1158,9 @@
       <c r="AD7" t="s">
         <v>34</v>
       </c>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1226,9 +1248,12 @@
         <v>35</v>
       </c>
       <c r="AC8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1323,6 +1348,9 @@
       <c r="AD9" t="s">
         <v>34</v>
       </c>
+      <c r="AE9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1415,6 +1443,9 @@
       <c r="AD10" t="s">
         <v>34</v>
       </c>
+      <c r="AE10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1507,6 +1538,9 @@
       <c r="AD11" t="s">
         <v>34</v>
       </c>
+      <c r="AE11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1599,6 +1633,9 @@
       <c r="AD12" t="s">
         <v>34</v>
       </c>
+      <c r="AE12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1691,6 +1728,9 @@
       <c r="AD13" t="s">
         <v>34</v>
       </c>
+      <c r="AE13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1783,6 +1823,9 @@
       <c r="AD14" t="s">
         <v>34</v>
       </c>
+      <c r="AE14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1834,7 +1877,7 @@
         <v>35</v>
       </c>
       <c r="R15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
         <v>34</v>
@@ -1870,6 +1913,9 @@
         <v>34</v>
       </c>
       <c r="AD15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1917,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
@@ -1959,13 +2005,16 @@
         <v>34</v>
       </c>
       <c r="AC16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="s">
         <v>34</v>
       </c>
+      <c r="AE16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -2056,8 +2105,11 @@
       <c r="AD17" t="s">
         <v>34</v>
       </c>
+      <c r="AE17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -2148,8 +2200,11 @@
       <c r="AD18" t="s">
         <v>34</v>
       </c>
+      <c r="AE18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -2240,8 +2295,11 @@
       <c r="AD19" t="s">
         <v>34</v>
       </c>
+      <c r="AE19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -2332,8 +2390,11 @@
       <c r="AD20" t="s">
         <v>34</v>
       </c>
+      <c r="AE20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -2424,8 +2485,11 @@
       <c r="AD21" t="s">
         <v>34</v>
       </c>
+      <c r="AE21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2516,8 +2580,11 @@
       <c r="AD22" t="s">
         <v>34</v>
       </c>
+      <c r="AE22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2608,8 +2675,11 @@
       <c r="AD23" t="s">
         <v>34</v>
       </c>
+      <c r="AE23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2700,8 +2770,11 @@
       <c r="AD24" t="s">
         <v>34</v>
       </c>
+      <c r="AE24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -2775,10 +2848,10 @@
         <v>34</v>
       </c>
       <c r="Y25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="s">
         <v>34</v>
@@ -2790,10 +2863,13 @@
         <v>35</v>
       </c>
       <c r="AD25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -2884,8 +2960,11 @@
       <c r="AD26" t="s">
         <v>34</v>
       </c>
+      <c r="AE26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -2976,8 +3055,11 @@
       <c r="AD27" t="s">
         <v>34</v>
       </c>
+      <c r="AE27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -3048,7 +3130,7 @@
         <v>34</v>
       </c>
       <c r="X28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y28" t="s">
         <v>34</v>
@@ -3068,8 +3150,11 @@
       <c r="AD28" t="s">
         <v>34</v>
       </c>
+      <c r="AE28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -3160,8 +3245,11 @@
       <c r="AD29" t="s">
         <v>34</v>
       </c>
+      <c r="AE29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -3252,8 +3340,11 @@
       <c r="AD30" t="s">
         <v>34</v>
       </c>
+      <c r="AE30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -3344,8 +3435,11 @@
       <c r="AD31" t="s">
         <v>34</v>
       </c>
+      <c r="AE31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -3436,8 +3530,11 @@
       <c r="AD32" t="s">
         <v>34</v>
       </c>
+      <c r="AE32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -3528,8 +3625,11 @@
       <c r="AD33" t="s">
         <v>34</v>
       </c>
+      <c r="AE33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -3618,6 +3718,9 @@
         <v>34</v>
       </c>
       <c r="AD34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3625,7 +3728,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AC34">
+  <conditionalFormatting sqref="D3:AD34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
@@ -3634,14 +3737,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35:Q35">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD34">
+  <conditionalFormatting sqref="AE3:AE34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1093206\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78899E9-D5C0-4414-96EE-DCCAD7ED33EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAFCD68-DF8B-44AE-9285-56687EC5729E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,7 +2454,7 @@
         <v>34</v>
       </c>
       <c r="AF20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1093206\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prof. Lucas\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60685579-A85D-42AF-9524-FE87913EA647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB92C62-169C-4D54-A793-5F7E293ED322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="44">
   <si>
     <t>Aluno</t>
   </si>
@@ -533,19 +533,19 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG35" sqref="AG35"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -637,7 +637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -738,7 +738,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -839,7 +839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -936,8 +936,11 @@
       <c r="AF4" t="s">
         <v>34</v>
       </c>
+      <c r="AG4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -1200,8 +1203,11 @@
       <c r="AF7" t="s">
         <v>34</v>
       </c>
+      <c r="AG7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -3925,14 +3931,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AF34 AG3 AG5:AG6 AG8:AG34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AG34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prof. Lucas\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB92C62-169C-4D54-A793-5F7E293ED322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC9CEC5-A65C-4CBA-BAE0-04DFAC5C3225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +542,7 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="30" max="33" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -699,7 +700,7 @@
         <v>45373</v>
       </c>
       <c r="U2" s="1">
-        <v>45407</v>
+        <v>45376</v>
       </c>
       <c r="V2" s="1">
         <v>45383</v>
@@ -729,7 +730,7 @@
         <v>45415</v>
       </c>
       <c r="AE2" s="1">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="AF2" s="1">
         <v>45422</v>

--- a/2em/chamada.xlsx
+++ b/2em/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prof. Lucas\sesi2024\2em\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sesi2024\2em\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC9CEC5-A65C-4CBA-BAE0-04DFAC5C3225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5586BD-2DC4-4284-B8F2-E8DA5EF62CB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="45">
   <si>
     <t>Aluno</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>5/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
   </si>
 </sst>
 </file>
@@ -530,23 +533,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -637,8 +640,11 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -738,8 +744,11 @@
       <c r="AG2" s="1">
         <v>45425</v>
       </c>
+      <c r="AH2" s="1">
+        <v>45429</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -839,8 +848,11 @@
       <c r="AG3" t="s">
         <v>34</v>
       </c>
+      <c r="AH3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -940,8 +952,11 @@
       <c r="AG4" t="s">
         <v>35</v>
       </c>
+      <c r="AH4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -1005,8 +1020,11 @@
       <c r="AG5" t="s">
         <v>34</v>
       </c>
+      <c r="AH5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -1106,8 +1124,11 @@
       <c r="AG6" t="s">
         <v>34</v>
       </c>
+      <c r="AH6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -1207,8 +1228,11 @@
       <c r="AG7" t="s">
         <v>35</v>
       </c>
+      <c r="AH7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -1308,8 +1332,11 @@
       <c r="AG8" t="s">
         <v>34</v>
       </c>
+      <c r="AH8" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -1409,8 +1436,11 @@
       <c r="AG9" t="s">
         <v>34</v>
       </c>
+      <c r="AH9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -1510,8 +1540,11 @@
       <c r="AG10" t="s">
         <v>34</v>
       </c>
+      <c r="AH10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1611,8 +1644,11 @@
       <c r="AG11" t="s">
         <v>34</v>
       </c>
+      <c r="AH11" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1712,8 +1748,11 @@
       <c r="AG12" t="s">
         <v>34</v>
       </c>
+      <c r="AH12" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1813,8 +1852,11 @@
       <c r="AG13" t="s">
         <v>34</v>
       </c>
+      <c r="AH13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1914,8 +1956,11 @@
       <c r="AG14" t="s">
         <v>34</v>
       </c>
+      <c r="AH14" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -2012,8 +2057,11 @@
       <c r="AG15" t="s">
         <v>35</v>
       </c>
+      <c r="AH15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -2113,8 +2161,11 @@
       <c r="AG16" t="s">
         <v>34</v>
       </c>
+      <c r="AH16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -2214,8 +2265,11 @@
       <c r="AG17" t="s">
         <v>34</v>
       </c>
+      <c r="AH17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -2315,8 +2369,11 @@
       <c r="AG18" t="s">
         <v>34</v>
       </c>
+      <c r="AH18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -2416,8 +2473,11 @@
       <c r="AG19" t="s">
         <v>34</v>
       </c>
+      <c r="AH19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -2517,8 +2577,11 @@
       <c r="AG20" t="s">
         <v>34</v>
       </c>
+      <c r="AH20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -2618,8 +2681,11 @@
       <c r="AG21" t="s">
         <v>34</v>
       </c>
+      <c r="AH21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2719,8 +2785,11 @@
       <c r="AG22" t="s">
         <v>34</v>
       </c>
+      <c r="AH22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2820,8 +2889,11 @@
       <c r="AG23" t="s">
         <v>34</v>
       </c>
+      <c r="AH23" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2921,8 +2993,11 @@
       <c r="AG24" t="s">
         <v>35</v>
       </c>
+      <c r="AH24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -3022,8 +3097,11 @@
       <c r="AG25" t="s">
         <v>34</v>
       </c>
+      <c r="AH25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -3123,8 +3201,11 @@
       <c r="AG26" t="s">
         <v>34</v>
       </c>
+      <c r="AH26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -3224,8 +3305,11 @@
       <c r="AG27" t="s">
         <v>34</v>
       </c>
+      <c r="AH27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -3325,8 +3409,11 @@
       <c r="AG28" t="s">
         <v>34</v>
       </c>
+      <c r="AH28" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -3426,8 +3513,11 @@
       <c r="AG29" t="s">
         <v>34</v>
       </c>
+      <c r="AH29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -3527,8 +3617,11 @@
       <c r="AG30" t="s">
         <v>34</v>
       </c>
+      <c r="AH30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -3628,8 +3721,11 @@
       <c r="AG31" t="s">
         <v>34</v>
       </c>
+      <c r="AH31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -3729,8 +3825,11 @@
       <c r="AG32" t="s">
         <v>34</v>
       </c>
+      <c r="AH32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -3830,8 +3929,11 @@
       <c r="AG33" t="s">
         <v>34</v>
       </c>
+      <c r="AH33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -3931,15 +4033,18 @@
       <c r="AG34" t="s">
         <v>34</v>
       </c>
+      <c r="AH34" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AG34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AH34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
